--- a/MarsFramework/MarsFramework/ExcelData/TestData.xlsx
+++ b/MarsFramework/MarsFramework/ExcelData/TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Language</t>
   </si>
   <si>
-    <t>English</t>
-  </si>
-  <si>
     <t>Skill</t>
   </si>
   <si>
@@ -139,6 +136,9 @@
   </si>
   <si>
     <t>Automation</t>
+  </si>
+  <si>
+    <t>Japanese</t>
   </si>
 </sst>
 </file>
@@ -548,19 +548,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -568,19 +568,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -625,10 +625,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -644,8 +644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,66 +664,66 @@
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="H2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -736,7 +736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -748,16 +748,16 @@
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="E1" s="6"/>
       <c r="F1" s="6"/>
@@ -768,16 +768,16 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s">
         <v>35</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>36</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>37</v>
-      </c>
-      <c r="D2" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
